--- a/table.xlsx
+++ b/table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>tip2</t>
   </si>
@@ -24,9 +24,6 @@
     <t>tip3</t>
   </si>
   <si>
-    <t>tip4</t>
-  </si>
-  <si>
     <t>total</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -52,10 +49,6 @@
   </si>
   <si>
     <t>datetime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tip4text</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -402,17 +395,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A12"/>
+  <dimension ref="A2:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
@@ -422,27 +415,27 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
@@ -452,17 +445,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -476,7 +459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
